--- a/dadosIA.xlsx
+++ b/dadosIA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\Universidade\2º ano\2º Semestre PE\Projeto\Exel2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\projIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1025365D-3566-48C1-A49D-39743930859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C60EBF-3A56-47CC-A0A6-BA9A0246754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,16 +111,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,11 +119,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -418,7 +418,7 @@
   <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,76 +436,76 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -513,23 +513,27 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>43.75</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>0.13500000000000001</v>
       </c>
       <c r="G5" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -543,13 +547,13 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>19.440000000000001</v>
       </c>
       <c r="F6" s="1">
@@ -558,8 +562,12 @@
       <c r="G6" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -573,23 +581,27 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>42</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>65.63</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.151</v>
       </c>
       <c r="G7" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.151</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -603,13 +615,13 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>32</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>39.51</v>
       </c>
       <c r="F8" s="1">
@@ -618,8 +630,12 @@
       <c r="G8" s="1">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.14599999999999999</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -633,23 +649,27 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>55</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>55</v>
       </c>
       <c r="F9" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="6">
+        <v>0.159</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -663,21 +683,27 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>54.86</v>
       </c>
       <c r="F10" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -691,21 +717,27 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>69</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>35.200000000000003</v>
       </c>
       <c r="F11" s="1">
         <v>0.183</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.17299999999999999</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -719,21 +751,27 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>8.44</v>
       </c>
       <c r="F12" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.159</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -747,21 +785,27 @@
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>18</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>139</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>42.9</v>
       </c>
       <c r="F13" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.246</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -775,21 +819,27 @@
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>20</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>184</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>46</v>
       </c>
       <c r="F14" s="1">
         <v>0.317</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.312</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -803,21 +853,27 @@
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>21</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>180</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>40.82</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>0.27</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.26800000000000002</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -831,21 +887,27 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>166</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>26.56</v>
       </c>
       <c r="F16" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.27500000000000002</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -859,21 +921,27 @@
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>31</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>180</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>18.73</v>
       </c>
       <c r="F17" s="1">
         <v>0.373</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>

--- a/dadosIA.xlsx
+++ b/dadosIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\projIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C60EBF-3A56-47CC-A0A6-BA9A0246754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A3655-262C-4564-BF60-D36AD37320BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Teste</t>
   </si>
@@ -58,7 +58,46 @@
     <t>Nº de Nós Gerados</t>
   </si>
   <si>
-    <t>Nº de Nós Explorados</t>
+    <t>Nº de Nós Expandidos</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
   </si>
 </sst>
 </file>
@@ -84,19 +123,212 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -105,34 +337,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -418,7 +758,7 @@
   <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,520 +776,728 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="19">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20">
         <v>43.75</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="21">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="22">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="22">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="J5" s="24">
+        <v>7</v>
+      </c>
+      <c r="K5" s="22">
+        <v>7</v>
+      </c>
+      <c r="L5" s="22">
+        <v>7</v>
+      </c>
+      <c r="M5" s="22">
+        <v>7</v>
+      </c>
+      <c r="N5" s="24">
+        <v>7</v>
+      </c>
+      <c r="O5" s="22">
+        <v>7</v>
+      </c>
+      <c r="P5" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="42">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="43">
+        <v>7</v>
+      </c>
+      <c r="E6" s="44">
         <v>19.440000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="38">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="39">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="39">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="J6" s="38">
+        <v>7</v>
+      </c>
+      <c r="K6" s="39">
+        <v>7</v>
+      </c>
+      <c r="L6" s="39">
+        <v>7</v>
+      </c>
+      <c r="M6" s="39">
+        <v>7</v>
+      </c>
+      <c r="N6" s="38">
+        <v>7</v>
+      </c>
+      <c r="O6" s="39">
+        <v>7</v>
+      </c>
+      <c r="P6" s="39">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>42</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="27">
         <v>65.63</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="28">
         <v>0.151</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="22">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="22">
         <v>0.14699999999999999</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="22">
         <v>0.151</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="J7" s="29">
+        <v>46</v>
+      </c>
+      <c r="K7" s="22">
+        <v>46</v>
+      </c>
+      <c r="L7" s="22">
+        <v>43</v>
+      </c>
+      <c r="M7" s="22">
+        <v>46</v>
+      </c>
+      <c r="N7" s="29">
+        <v>46</v>
+      </c>
+      <c r="O7" s="22">
+        <v>46</v>
+      </c>
+      <c r="P7" s="22">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="42">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="43">
         <v>32</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="44">
         <v>39.51</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="38">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="39">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="39">
         <v>0.14599999999999999</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="J8" s="38">
+        <v>33</v>
+      </c>
+      <c r="K8" s="39">
+        <v>34</v>
+      </c>
+      <c r="L8" s="39">
+        <v>34</v>
+      </c>
+      <c r="M8" s="39">
+        <v>33</v>
+      </c>
+      <c r="N8" s="38">
+        <v>32</v>
+      </c>
+      <c r="O8" s="39">
+        <v>33</v>
+      </c>
+      <c r="P8" s="39">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="18">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="26">
         <v>55</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="30">
         <v>55</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="29">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="31">
         <v>0.159</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="22">
         <v>0.161</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="22">
         <v>0.17100000000000001</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="J9" s="29">
+        <v>60</v>
+      </c>
+      <c r="K9" s="22">
+        <v>66</v>
+      </c>
+      <c r="L9" s="22">
+        <v>63</v>
+      </c>
+      <c r="M9" s="22">
+        <v>60</v>
+      </c>
+      <c r="N9" s="29">
+        <v>59</v>
+      </c>
+      <c r="O9" s="22">
+        <v>65</v>
+      </c>
+      <c r="P9" s="22">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="42">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="43">
         <v>79</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="44">
         <v>54.86</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="38">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="39">
         <v>0.189</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="39">
         <v>0.182</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="39">
         <v>0.19600000000000001</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="J10" s="38">
+        <v>98</v>
+      </c>
+      <c r="K10" s="39">
+        <v>112</v>
+      </c>
+      <c r="L10" s="39">
+        <v>95</v>
+      </c>
+      <c r="M10" s="39">
+        <v>98</v>
+      </c>
+      <c r="N10" s="38">
+        <v>97</v>
+      </c>
+      <c r="O10" s="39">
+        <v>112</v>
+      </c>
+      <c r="P10" s="39">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="18">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="26">
         <v>69</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="30">
         <v>35.200000000000003</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>0.183</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="22">
         <v>0.17799999999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="22">
         <v>0.17100000000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="22">
         <v>0.17299999999999999</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="J11" s="29">
+        <v>69</v>
+      </c>
+      <c r="K11" s="22">
+        <v>69</v>
+      </c>
+      <c r="L11" s="22">
+        <v>69</v>
+      </c>
+      <c r="M11" s="22">
+        <v>69</v>
+      </c>
+      <c r="N11" s="29">
+        <v>69</v>
+      </c>
+      <c r="O11" s="22">
+        <v>69</v>
+      </c>
+      <c r="P11" s="22">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="42">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="43">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="44">
         <v>8.44</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="38">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="39">
         <v>0.14199999999999999</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="39">
         <v>0.159</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="J12" s="38">
+        <v>19</v>
+      </c>
+      <c r="K12" s="39">
+        <v>19</v>
+      </c>
+      <c r="L12" s="39">
+        <v>19</v>
+      </c>
+      <c r="M12" s="39">
+        <v>19</v>
+      </c>
+      <c r="N12" s="38">
+        <v>19</v>
+      </c>
+      <c r="O12" s="39">
+        <v>19</v>
+      </c>
+      <c r="P12" s="39">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="26">
         <v>139</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="30">
         <v>42.9</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="29">
         <v>0.23499999999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="22">
         <v>0.218</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="22">
         <v>0.222</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="22">
         <v>0.246</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="J13" s="29">
+        <v>139</v>
+      </c>
+      <c r="K13" s="22">
+        <v>139</v>
+      </c>
+      <c r="L13" s="22">
+        <v>139</v>
+      </c>
+      <c r="M13" s="22">
+        <v>139</v>
+      </c>
+      <c r="N13" s="29">
+        <v>139</v>
+      </c>
+      <c r="O13" s="22">
+        <v>139</v>
+      </c>
+      <c r="P13" s="22">
+        <v>139</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="42">
+        <v>20</v>
+      </c>
+      <c r="D14" s="43">
         <v>184</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="45">
         <v>46</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="38">
         <v>0.317</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="39">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="39">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="39">
         <v>0.312</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="J14" s="38">
+        <v>184</v>
+      </c>
+      <c r="K14" s="39">
+        <v>184</v>
+      </c>
+      <c r="L14" s="39">
+        <v>184</v>
+      </c>
+      <c r="M14" s="39">
+        <v>184</v>
+      </c>
+      <c r="N14" s="38">
+        <v>184</v>
+      </c>
+      <c r="O14" s="39">
+        <v>184</v>
+      </c>
+      <c r="P14" s="39">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2">
-        <v>180</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="C15" s="18">
+        <v>21</v>
+      </c>
+      <c r="D15" s="26">
+        <v>180</v>
+      </c>
+      <c r="E15" s="30">
         <v>40.82</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="28">
         <v>0.27</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="22">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="22">
         <v>0.24399999999999999</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="22">
         <v>0.26800000000000002</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="J15" s="29">
+        <v>180</v>
+      </c>
+      <c r="K15" s="22">
+        <v>180</v>
+      </c>
+      <c r="L15" s="22">
+        <v>180</v>
+      </c>
+      <c r="M15" s="22">
+        <v>180</v>
+      </c>
+      <c r="N15" s="29">
+        <v>180</v>
+      </c>
+      <c r="O15" s="22">
+        <v>180</v>
+      </c>
+      <c r="P15" s="22">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="42">
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="43">
         <v>166</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="45">
         <v>26.56</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="38">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="39">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="39">
         <v>0.24199999999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="39">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="J16" s="38">
+        <v>166</v>
+      </c>
+      <c r="K16" s="39">
+        <v>166</v>
+      </c>
+      <c r="L16" s="39">
+        <v>166</v>
+      </c>
+      <c r="M16" s="39">
+        <v>166</v>
+      </c>
+      <c r="N16" s="38">
+        <v>166</v>
+      </c>
+      <c r="O16" s="39">
+        <v>166</v>
+      </c>
+      <c r="P16" s="39">
+        <v>166</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="32">
         <v>31</v>
       </c>
-      <c r="D17" s="2">
-        <v>180</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="33">
+        <v>180</v>
+      </c>
+      <c r="E17" s="34">
         <v>18.73</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="35">
         <v>0.373</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="36">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="36">
         <v>0.31900000000000001</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="36">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="J17" s="35">
+        <v>180</v>
+      </c>
+      <c r="K17" s="36">
+        <v>180</v>
+      </c>
+      <c r="L17" s="36">
+        <v>180</v>
+      </c>
+      <c r="M17" s="36">
+        <v>180</v>
+      </c>
+      <c r="N17" s="35">
+        <v>180</v>
+      </c>
+      <c r="O17" s="36">
+        <v>180</v>
+      </c>
+      <c r="P17" s="36">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
